--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16312.07665995879</v>
+        <v>3246103.255331799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16312.07665995879</v>
+        <v>3246103.255331799</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50231.0980606009</v>
+        <v>3093387.913111108</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50231.0980606009</v>
+        <v>3093387.913111108</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114557781.963775</v>
+        <v>45466303.70712985</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12478.02082861613</v>
+        <v>1306921.457896182</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22319.56324155957</v>
+        <v>2166335.822997432</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32171.94254155768</v>
+        <v>3025750.188098683</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42588.95099515558</v>
+        <v>3883854.739629914</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53006.39464892217</v>
+        <v>4742045.895994719</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63423.83830268876</v>
+        <v>5600237.05235952</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73841.28195645535</v>
+        <v>6458428.208724321</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84258.725610222</v>
+        <v>7316619.36508912</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94720.04315991576</v>
+        <v>8157814.646258228</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105210.7690978631</v>
+        <v>9004862.196689786</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115701.4950358104</v>
+        <v>9851909.747121343</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126192.0080222645</v>
+        <v>10699042.01901226</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136682.3743899934</v>
+        <v>11546145.11377685</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147172.9537092155</v>
+        <v>12393163.48708209</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157663.6796471627</v>
+        <v>13240211.03751366</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
